--- a/documentation/dicionario-dados-versao-2.xlsx
+++ b/documentation/dicionario-dados-versao-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Unifeso\TCC\dicionário\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\pesquisa-covid-19\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -651,7 +651,100 @@
     <t>Valores válidos 1,2,3,4,5,6,7,8,9,10,11,12,13,14, 15 ,16,17,18,19,20,21,22,23,24,25,26</t>
   </si>
   <si>
-    <t xml:space="preserve">Quais os sistemas operacionais que você mais utiliza? (Você pode escolher mais de uma opção)
+    <t>Obrigatório se SO_UTILIZADO for 7</t>
+  </si>
+  <si>
+    <t>Você teve dificuldades em utilizar aplicativos/software/sistemas durante o período de confinamento?</t>
+  </si>
+  <si>
+    <t>DIFICULDADE_USO_APP</t>
+  </si>
+  <si>
+    <t>Você precisou contatar o suporte ao usuário de algum software, aplicativo ou sistema que você fez uso?</t>
+  </si>
+  <si>
+    <t>Obrigatório se TIPO_USUARIO for 2 ou 3, Valores válidos S ou N</t>
+  </si>
+  <si>
+    <t>CONTATAR_SUPORTE_APP</t>
+  </si>
+  <si>
+    <t>Conte-nos se você ficou satisfeito com os serviços prestados pela companhia de telefone:
+S - Sim.
+N - Não.
+O - Não fiz o uso desse serviço.</t>
+  </si>
+  <si>
+    <t>Conte-nos se você ficou satisfeito com os serviços prestados pela companhia de TV a cabo:
+S - Sim.
+N - Não.
+O - Não fiz o uso desse serviço.</t>
+  </si>
+  <si>
+    <t>Conte-nos se você ficou satisfeito com os serviços prestados por aplicativos da companhia de Luz:
+S - Sim.
+N - Não.
+O - Não fiz o uso desse serviço.</t>
+  </si>
+  <si>
+    <t>Conte-nos se você ficou satisfeito com os serviços prestados por aplicativos de serviços de streaming:
+S - Sim.
+N - Não.
+O - Não fiz o uso desse serviço.</t>
+  </si>
+  <si>
+    <t>Conte-nos se você ficou satisfeito com os serviços prestados por aplicativos de instituições financeiras (Bancos, financiadoras, corretoras de valores...):
+S - Sim.
+N - Não.
+O - Não fiz o uso desse serviço.</t>
+  </si>
+  <si>
+    <t>Conte-nos se você ficou satisfeito com os serviços prestados por aplicativos de instituições governamentais (FGTS, Meu INSS, CDT entre outros...):
+S - Sim.
+N - Não.
+O - Não fiz o uso desse serviço.</t>
+  </si>
+  <si>
+    <t>Conte-nos se você ficou satisfeito com os serviços online disponibilizados pela Universidade (Portal do aluno, ava, biblioteca online...):
+S - Sim.
+N - Não.
+O - Não fiz o uso desse serviço.</t>
+  </si>
+  <si>
+    <t>Valores válidos S, N ou O</t>
+  </si>
+  <si>
+    <t>SAT_SERV_TEL</t>
+  </si>
+  <si>
+    <t>SAT_SERV_LUZ</t>
+  </si>
+  <si>
+    <t>SAT_SERV_INTERNET</t>
+  </si>
+  <si>
+    <t>SAT_SERV_TV</t>
+  </si>
+  <si>
+    <t>SAT_SERV_STREAMING</t>
+  </si>
+  <si>
+    <t>SAT_SERV_FINAN</t>
+  </si>
+  <si>
+    <t>SAT_SERV_GOV</t>
+  </si>
+  <si>
+    <t>SAT_SERV_UNIVER</t>
+  </si>
+  <si>
+    <t>Conte-nos se você ficou satisfeito com os serviços prestados pela companhia de internet:
+S - Sim.
+N - Não.
+O - Não fiz o uso desse serviço.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais os sistemas operacionais que você mais utiliza?
 1 – Windows
 2 – Distribuição Linux
 3 – Mac OS
@@ -660,99 +753,6 @@
 6 - Não sei especificar
 7 – Outro
 </t>
-  </si>
-  <si>
-    <t>Obrigatório se SO_UTILIZADO for 7</t>
-  </si>
-  <si>
-    <t>Você teve dificuldades em utilizar aplicativos/software/sistemas durante o período de confinamento?</t>
-  </si>
-  <si>
-    <t>DIFICULDADE_USO_APP</t>
-  </si>
-  <si>
-    <t>Você precisou contatar o suporte ao usuário de algum software, aplicativo ou sistema que você fez uso?</t>
-  </si>
-  <si>
-    <t>Obrigatório se TIPO_USUARIO for 2 ou 3, Valores válidos S ou N</t>
-  </si>
-  <si>
-    <t>CONTATAR_SUPORTE_APP</t>
-  </si>
-  <si>
-    <t>Conte-nos se você ficou satisfeito com os serviços prestados pela companhia de telefone:
-S - Sim.
-N - Não.
-O - Não fiz o uso desse serviço.</t>
-  </si>
-  <si>
-    <t>Conte-nos se você ficou satisfeito com os serviços prestados pela companhia de TV a cabo:
-S - Sim.
-N - Não.
-O - Não fiz o uso desse serviço.</t>
-  </si>
-  <si>
-    <t>Conte-nos se você ficou satisfeito com os serviços prestados por aplicativos da companhia de Luz:
-S - Sim.
-N - Não.
-O - Não fiz o uso desse serviço.</t>
-  </si>
-  <si>
-    <t>Conte-nos se você ficou satisfeito com os serviços prestados por aplicativos de serviços de streaming:
-S - Sim.
-N - Não.
-O - Não fiz o uso desse serviço.</t>
-  </si>
-  <si>
-    <t>Conte-nos se você ficou satisfeito com os serviços prestados por aplicativos de instituições financeiras (Bancos, financiadoras, corretoras de valores...):
-S - Sim.
-N - Não.
-O - Não fiz o uso desse serviço.</t>
-  </si>
-  <si>
-    <t>Conte-nos se você ficou satisfeito com os serviços prestados por aplicativos de instituições governamentais (FGTS, Meu INSS, CDT entre outros...):
-S - Sim.
-N - Não.
-O - Não fiz o uso desse serviço.</t>
-  </si>
-  <si>
-    <t>Conte-nos se você ficou satisfeito com os serviços online disponibilizados pela Universidade (Portal do aluno, ava, biblioteca online...):
-S - Sim.
-N - Não.
-O - Não fiz o uso desse serviço.</t>
-  </si>
-  <si>
-    <t>Valores válidos S, N ou O</t>
-  </si>
-  <si>
-    <t>SAT_SERV_TEL</t>
-  </si>
-  <si>
-    <t>SAT_SERV_LUZ</t>
-  </si>
-  <si>
-    <t>SAT_SERV_INTERNET</t>
-  </si>
-  <si>
-    <t>SAT_SERV_TV</t>
-  </si>
-  <si>
-    <t>SAT_SERV_STREAMING</t>
-  </si>
-  <si>
-    <t>SAT_SERV_FINAN</t>
-  </si>
-  <si>
-    <t>SAT_SERV_GOV</t>
-  </si>
-  <si>
-    <t>SAT_SERV_UNIVER</t>
-  </si>
-  <si>
-    <t>Conte-nos se você ficou satisfeito com os serviços prestados pela companhia de internet:
-S - Sim.
-N - Não.
-O - Não fiz o uso desse serviço.</t>
   </si>
 </sst>
 </file>
@@ -1021,6 +1021,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1038,9 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,32 +1621,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2565,7 +2565,7 @@
         <v>23</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>114</v>
@@ -2598,7 +2598,7 @@
         <v>116</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J34" s="23"/>
     </row>
@@ -2766,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="18">
         <v>1</v>
@@ -2774,11 +2774,11 @@
       <c r="G40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>169</v>
+      <c r="H40" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J40" s="24"/>
     </row>
@@ -2796,7 +2796,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" s="18">
         <v>1</v>
@@ -2804,11 +2804,11 @@
       <c r="G41" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="J41" s="24"/>
     </row>
@@ -2826,7 +2826,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" s="18">
         <v>1</v>
@@ -2835,10 +2835,10 @@
         <v>23</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J42" s="24"/>
     </row>
@@ -2856,7 +2856,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F43" s="18">
         <v>1</v>
@@ -2865,10 +2865,10 @@
         <v>23</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J43" s="24"/>
     </row>
@@ -2886,7 +2886,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F44" s="18">
         <v>1</v>
@@ -2895,10 +2895,10 @@
         <v>23</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J44" s="24"/>
     </row>
@@ -2916,7 +2916,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F45" s="18">
         <v>1</v>
@@ -2925,10 +2925,10 @@
         <v>23</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J45" s="24"/>
     </row>
@@ -2946,7 +2946,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46" s="18">
         <v>1</v>
@@ -2955,10 +2955,10 @@
         <v>23</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J46" s="24"/>
     </row>
@@ -2976,7 +2976,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F47" s="18">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         <v>23</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J47" s="24"/>
     </row>
@@ -3006,7 +3006,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F48" s="18">
         <v>1</v>
@@ -3015,10 +3015,10 @@
         <v>23</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J48" s="24"/>
     </row>
@@ -3036,7 +3036,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F49" s="18">
         <v>1</v>
@@ -3045,10 +3045,10 @@
         <v>23</v>
       </c>
       <c r="H49" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="J49" s="24"/>
     </row>
